--- a/src/assets/DataCSV/Salles.xlsx
+++ b/src/assets/DataCSV/Salles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\ProjetBlendedLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F850E-A5C5-41E5-9666-52013A2B6F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A42CBB-EE19-42A8-9BDC-A2628A610376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t>bloc</t>
   </si>
@@ -104,8 +104,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalleTable" displayName="SalleTable" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalleTable" displayName="SalleTable" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="bloc"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="numSalle"/>
@@ -380,10 +380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -435,15 +435,239 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
         <v>30</v>
       </c>
     </row>

--- a/src/assets/DataCSV/Salles.xlsx
+++ b/src/assets/DataCSV/Salles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\ProjetBlendedLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A42CBB-EE19-42A8-9BDC-A2628A610376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC0E69-8DDE-4957-878F-C842440807D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/assets/DataCSV/Salles.xlsx
+++ b/src/assets/DataCSV/Salles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC0E69-8DDE-4957-878F-C842440807D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DF6BA-0750-4463-A3D8-571DF27E779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
